--- a/differences_6_0.45.xlsx
+++ b/differences_6_0.45.xlsx
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2110000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09800000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03499999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09199999999999997</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06900000000000006</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.132</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07300000000000006</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06699999999999995</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04700000000000004</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02599999999999997</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.07400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.007999999999999952</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1447,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04399999999999993</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04700000000000004</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02299999999999991</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07800000000000007</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.03900000000000003</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.01800000000000002</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-0.01200000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.04199999999999998</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06399999999999995</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04099999999999993</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05399999999999994</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07800000000000001</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0.02999999999999992</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.03699999999999998</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-0.02100000000000002</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.01700000000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.01900000000000002</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.02899999999999991</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.03600000000000003</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.03700000000000003</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.127</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-0.04900000000000004</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.05199999999999994</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-0.03900000000000003</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-0.02999999999999992</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>0.02799999999999991</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.06399999999999995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
